--- a/biology/Histoire de la zoologie et de la botanique/Charles_Paulus_Bélanger/Charles_Paulus_Bélanger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Paulus_Bélanger/Charles_Paulus_Bélanger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Paulus_B%C3%A9langer</t>
+          <t>Charles_Paulus_Bélanger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Paulus Bélanger, né à Paris le 27 mai 1805 et mort le 18 novembre 1881 au jardin botanique de Saint-Pierre (Martinique), qu'il dirigeait depuis trente ans, est un botaniste et naturaliste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Paulus Bélanger, né à Paris le 27 mai 1805 et mort le 18 novembre 1881 au jardin botanique de Saint-Pierre (Martinique), qu'il dirigeait depuis trente ans, est un botaniste et naturaliste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Paulus_B%C3%A9langer</t>
+          <t>Charles_Paulus_Bélanger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 27 mai 1805 dans le 10e arrondissement de Paris, Charles Paulus Bélanger est le fils de Charles Bélanger, sergent-major au 10e régiment d'infanterie légère et de Marie Madeleine Noël[2].
-Médecin à Saint-Germain-des-Prés, il épouse en 1833 Marie Anastasie Beffroy, fille d'un receveur de l'enregistrement[3], puis en 1841 Jane Stewart, propriétaire à Clichy-sous-Bois[4].
-Il décède le 18 novembre 1881 au jardin botanique de Saint-Pierre, à la survivance de son épouse[5]. Il était le beau-frère d'Esprit Rigaud, maire du 6e arrondissement de Paris durant les années 1870.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 27 mai 1805 dans le 10e arrondissement de Paris, Charles Paulus Bélanger est le fils de Charles Bélanger, sergent-major au 10e régiment d'infanterie légère et de Marie Madeleine Noël.
+Médecin à Saint-Germain-des-Prés, il épouse en 1833 Marie Anastasie Beffroy, fille d'un receveur de l'enregistrement, puis en 1841 Jane Stewart, propriétaire à Clichy-sous-Bois.
+Il décède le 18 novembre 1881 au jardin botanique de Saint-Pierre, à la survivance de son épouse. Il était le beau-frère d'Esprit Rigaud, maire du 6e arrondissement de Paris durant les années 1870.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Paulus_B%C3%A9langer</t>
+          <t>Charles_Paulus_Bélanger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bélanger se voue de bonne heure à l'étude des sciences naturelles.
 En 1825, nommé directeur du jardin botanique de Pondichéry, il quitte la France par la route pour les Indes orientales, en compagnie d'Eugène Panon Desbassayns de Richemont qui vient d'être désigné gouverneur des établissements français de l'Inde. Bélanger doit mettre à profit ce long voyage pour réunir de nombreux documents ethnographiques et de précieuses collections.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Paulus_B%C3%A9langer</t>
+          <t>Charles_Paulus_Bélanger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charles Bélanger et al., Voyage aux Indes orientales, par le nord de l'Europe, les provinces du Caucase, la Géorgie, l'Arménie et la Perse, suivi de détails topographiques et autres sur le Pégou, les îles de Java, de Maurice et de Bourbon, sur le Cap de Bonne-Espérance et Sainte-Hélène, pendant les années 1825, 1826, 1827, 1828 et 1829 (4 tomes et 3 tomes d'atlas. Présentation avec un rapport verbal par F. Cuvier à l'Académie royale des sciences sur la partie zoologique du voyage aux Indes-Orientales de M. Bélanger), Paris, impr.-éd. Arthus Bertrans, 1834-1838 (présentation en ligne).
 Charles Bélanger et Bory de Saint-Vincent, Voyages aux Indes orientales, pendant les années 1825-1829, Botanique, 2e partie : Cryptogamie, 192 p.
